--- a/IDEAL_LIFE_Final_Client_Report_Generator.xlsx
+++ b/IDEAL_LIFE_Final_Client_Report_Generator.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10511"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edhart/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5530D4C-D7B3-BE40-BF7E-76387F9E6D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="920" windowWidth="29920" windowHeight="18560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="58">
   <si>
     <t>Primary Avatar</t>
   </si>
@@ -178,131 +172,29 @@
     <t>Creative Builder</t>
   </si>
   <si>
-    <t>Implements order and rhythm with calm consistency.</t>
-  </si>
-  <si>
-    <t>Helps others align emotionally as well as practically.</t>
-  </si>
-  <si>
-    <t>Discerns patterns and alignment internally before acting.</t>
-  </si>
-  <si>
-    <t>Creates harmony through presence and encouragement.</t>
-  </si>
-  <si>
-    <t>Guides others with personal investment and emotional care.</t>
-  </si>
-  <si>
-    <t>Builds frameworks and movements for spiritual growth.</t>
-  </si>
-  <si>
-    <t>Implements discipleship with plans, schedules, and tools.</t>
-  </si>
-  <si>
-    <t>Multiplies people through joy, energy, and hospitality.</t>
-  </si>
-  <si>
-    <t>Makes beauty, story, or experience with their hands or voice.</t>
-  </si>
-  <si>
-    <t>Channels creativity through collaboration and energy.</t>
-  </si>
-  <si>
-    <t>Creates through solitude and insight.</t>
-  </si>
-  <si>
-    <t>Uses creative tools to advance mission or vision.</t>
-  </si>
-  <si>
-    <t>Synthesizes complexity and builds frameworks in silence.</t>
-  </si>
-  <si>
-    <t>Implements ideas through systems and processes.</t>
-  </si>
-  <si>
-    <t>Designs blueprints that guide others toward purpose.</t>
-  </si>
-  <si>
-    <t>Finds elegance and meaning in structure and design.</t>
-  </si>
-  <si>
-    <t>Casts long-term vision and shepherds people toward it.</t>
-  </si>
-  <si>
-    <t>Leads through process, responsibility, and stewardship.</t>
-  </si>
-  <si>
-    <t>Invests legacy through relationship and mentoring.</t>
-  </si>
-  <si>
-    <t>Builds legacy with wisdom and contemplation.</t>
-  </si>
-  <si>
-    <t>Gives through celebration, spontaneity, and presence.</t>
-  </si>
-  <si>
-    <t>Structures giving through systems, plans, and tools.</t>
-  </si>
-  <si>
-    <t>Supports others with time, attention, and availability.</t>
-  </si>
-  <si>
-    <t>Gives to advance ideas, causes, and multiplication.</t>
-  </si>
-  <si>
-    <t>Finds insight through solitude, study, and analysis.</t>
-  </si>
-  <si>
-    <t>Turns insight into written, visual, or designed expression.</t>
-  </si>
-  <si>
-    <t>Applies insight to improve structures and decisions.</t>
-  </si>
-  <si>
-    <t>Uses insight to care for others with discernment.</t>
-  </si>
-  <si>
-    <t>Leads with compassion, presence, and empathy.</t>
-  </si>
-  <si>
-    <t>Provides stability, rhythm, and order for healing.</t>
-  </si>
-  <si>
-    <t>Offers wisdom gained through suffering and silence.</t>
-  </si>
-  <si>
-    <t>Brings emotional healing through laughter and warmth.</t>
-  </si>
-  <si>
-    <t>Spreads hope, laughter, and energy to everyone.</t>
-  </si>
-  <si>
-    <t>Encourages through presence and emotional awareness.</t>
-  </si>
-  <si>
-    <t>Brings people together through storytelling or events.</t>
-  </si>
-  <si>
-    <t>Connects people to move a cause or vision forward.</t>
-  </si>
-  <si>
-    <t>Leads into new territory with bold clarity.</t>
-  </si>
-  <si>
-    <t>Builds momentum through relationships and enthusiasm.</t>
-  </si>
-  <si>
-    <t>Launches new things through imagination and action.</t>
-  </si>
-  <si>
-    <t>Implements vision with courage and practical effort.</t>
+    <t>You live out your calling as a Grounded Executor — someone who thrives on structure, discipline, and dependable contribution. This means you turn ideas into reality with consistency and excellence. Others experience you as reliable, practical, and trustworthy. When aligned, your presence builds confidence and traction; when misaligned, it may become rigid, perfectionistic, or resistant to change.</t>
+  </si>
+  <si>
+    <t>You live out your calling as a Relational Nurturer — someone who creates safety, trust, and care in your relationships. This means you tend to serve through empathy, attentiveness, and emotional support. Others experience you as a grounded and faithful presence. When aligned, your style fosters healing and belonging; when misaligned, it may show up as over-identification with others’ emotions or exhaustion.</t>
+  </si>
+  <si>
+    <t>You live out your calling as a Reflective Thinker — someone who processes deeply and distills clarity from complexity. This means you need time, space, and solitude to develop meaningful insight. Others experience you as thoughtful, wise, and discerning. When aligned, your style reveals truth and direction; when misaligned, it may appear withdrawn, overly analytical, or disconnected.</t>
+  </si>
+  <si>
+    <t>You live out your calling as a Joyful Connector — someone who energizes others and infuses environments with warmth. This means you share your purpose through presence, affirmation, and community. Others experience you as uplifting, lively, and contagious in your enthusiasm. When aligned, your style brings life and encouragement; when misaligned, it may show up as scattered focus or avoidance of depth.</t>
+  </si>
+  <si>
+    <t>You live out your calling as a Visionary Strategist — someone who casts bold vision and moves others toward meaningful outcomes. This means you tend to lead with clarity, pursue long-term goals, and inspire aligned action. Others experience you as forward-focused and mission-driven. When aligned, your style brings direction and momentum; when misaligned, it may manifest as over-control or burnout.</t>
+  </si>
+  <si>
+    <t>You live out your calling as a Creative Builder — someone who brings truth and beauty to life through tangible expression. This means you are often creating, shaping, or designing things that reflect deeper values. Others experience you as inventive and inspirational. When aligned, your work invites others into wonder and insight; when misaligned, you may feel misunderstood, unproductive, or overly idealistic.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,21 +257,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -417,7 +301,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -451,7 +335,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -486,10 +369,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -662,24 +544,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="100.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,7 +571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -719,7 +591,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -739,7 +611,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -759,7 +631,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -779,7 +651,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -799,7 +671,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -819,7 +691,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -839,7 +711,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -859,7 +731,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -876,10 +748,10 @@
         <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -896,10 +768,10 @@
         <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -916,10 +788,10 @@
         <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -936,10 +808,10 @@
         <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -956,10 +828,10 @@
         <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -976,10 +848,10 @@
         <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -996,10 +868,10 @@
         <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1016,10 +888,10 @@
         <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1036,10 +908,10 @@
         <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1056,10 +928,10 @@
         <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1076,10 +948,10 @@
         <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1096,10 +968,10 @@
         <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1116,10 +988,10 @@
         <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1136,10 +1008,10 @@
         <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1156,10 +1028,10 @@
         <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1176,10 +1048,10 @@
         <v>50</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1196,10 +1068,10 @@
         <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1216,10 +1088,10 @@
         <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1236,10 +1108,10 @@
         <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1256,10 +1128,10 @@
         <v>51</v>
       </c>
       <c r="F29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -1276,10 +1148,10 @@
         <v>48</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1296,10 +1168,10 @@
         <v>46</v>
       </c>
       <c r="F31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -1316,10 +1188,10 @@
         <v>50</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1336,10 +1208,10 @@
         <v>51</v>
       </c>
       <c r="F33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -1356,10 +1228,10 @@
         <v>50</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1376,10 +1248,10 @@
         <v>46</v>
       </c>
       <c r="F35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -1396,10 +1268,10 @@
         <v>47</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -1416,10 +1288,10 @@
         <v>48</v>
       </c>
       <c r="F37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -1436,10 +1308,10 @@
         <v>50</v>
       </c>
       <c r="F38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -1456,10 +1328,10 @@
         <v>46</v>
       </c>
       <c r="F39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -1476,10 +1348,10 @@
         <v>47</v>
       </c>
       <c r="F40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -1496,10 +1368,10 @@
         <v>48</v>
       </c>
       <c r="F41" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -1516,10 +1388,10 @@
         <v>49</v>
       </c>
       <c r="F42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -1536,10 +1408,10 @@
         <v>46</v>
       </c>
       <c r="F43" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -1556,10 +1428,10 @@
         <v>47</v>
       </c>
       <c r="F44" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -1576,10 +1448,10 @@
         <v>50</v>
       </c>
       <c r="F45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -1596,10 +1468,10 @@
         <v>49</v>
       </c>
       <c r="F46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -1616,10 +1488,10 @@
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -1636,10 +1508,10 @@
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -1656,10 +1528,10 @@
         <v>50</v>
       </c>
       <c r="F49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -1676,10 +1548,10 @@
         <v>48</v>
       </c>
       <c r="F50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -1696,10 +1568,10 @@
         <v>51</v>
       </c>
       <c r="F51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -1716,10 +1588,10 @@
         <v>46</v>
       </c>
       <c r="F52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -1736,10 +1608,10 @@
         <v>47</v>
       </c>
       <c r="F53" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -1756,10 +1628,10 @@
         <v>48</v>
       </c>
       <c r="F54" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -1776,10 +1648,10 @@
         <v>51</v>
       </c>
       <c r="F55" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -1796,10 +1668,10 @@
         <v>46</v>
       </c>
       <c r="F56" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -1816,10 +1688,10 @@
         <v>47</v>
       </c>
       <c r="F57" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -1836,10 +1708,10 @@
         <v>47</v>
       </c>
       <c r="F58" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -1856,10 +1728,10 @@
         <v>46</v>
       </c>
       <c r="F59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -1876,10 +1748,10 @@
         <v>48</v>
       </c>
       <c r="F60" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -1896,10 +1768,10 @@
         <v>49</v>
       </c>
       <c r="F61" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -1916,10 +1788,10 @@
         <v>47</v>
       </c>
       <c r="F62" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -1936,10 +1808,10 @@
         <v>46</v>
       </c>
       <c r="F63" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -1956,10 +1828,10 @@
         <v>48</v>
       </c>
       <c r="F64" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -1976,10 +1848,10 @@
         <v>49</v>
       </c>
       <c r="F65" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -1996,10 +1868,10 @@
         <v>49</v>
       </c>
       <c r="F66" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -2016,10 +1888,10 @@
         <v>47</v>
       </c>
       <c r="F67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>14</v>
       </c>
@@ -2036,10 +1908,10 @@
         <v>51</v>
       </c>
       <c r="F68" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -2056,10 +1928,10 @@
         <v>50</v>
       </c>
       <c r="F69" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -2076,10 +1948,10 @@
         <v>49</v>
       </c>
       <c r="F70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -2096,10 +1968,10 @@
         <v>47</v>
       </c>
       <c r="F71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -2116,10 +1988,10 @@
         <v>51</v>
       </c>
       <c r="F72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -2136,10 +2008,10 @@
         <v>50</v>
       </c>
       <c r="F73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -2156,10 +2028,10 @@
         <v>50</v>
       </c>
       <c r="F74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>15</v>
       </c>
@@ -2176,10 +2048,10 @@
         <v>49</v>
       </c>
       <c r="F75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>15</v>
       </c>
@@ -2196,10 +2068,10 @@
         <v>51</v>
       </c>
       <c r="F76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>15</v>
       </c>
@@ -2216,10 +2088,10 @@
         <v>46</v>
       </c>
       <c r="F77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -2236,10 +2108,10 @@
         <v>50</v>
       </c>
       <c r="F78" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>15</v>
       </c>
@@ -2256,10 +2128,10 @@
         <v>49</v>
       </c>
       <c r="F79" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>15</v>
       </c>
@@ -2276,10 +2148,10 @@
         <v>51</v>
       </c>
       <c r="F80" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -2296,7 +2168,7 @@
         <v>46</v>
       </c>
       <c r="F81" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
